--- a/biology/Zoologie/Brangas_getus/Brangas_getus.xlsx
+++ b/biology/Zoologie/Brangas_getus/Brangas_getus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brangas getus est une espèce de papillons de la sous-famille des Theclinae (famille des Lycaenidae).
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brangas getus a été décrit par Johan Christian Fabricius en 1787 sous le nom de Papilio getus.
-Synonymes : Papilio pelops Stoll, [1781] ; Atlides getus[1].
-Nom vernaculaire
-Brangas getus se nomme Bright Brangas en anglais[2].
+Synonymes : Papilio pelops Stoll,  ; Atlides getus.
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brangas getus se nomme Bright Brangas en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brangas_getus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brangas_getus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Brangas getus est un petit papillon dont les pattes et les antennes sont annelées de noir et de blanc et qui possède une longue et fine queue à chaque aile postérieure.
 Le dessus est de couleur bleu métallisé.
@@ -554,36 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brangas_getus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brangas_getus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -608,12 +629,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brangas  getus est présent en Amérique centrale dont Costa Rica et Panama, à Trinité-et-Tobago, au Brésil, au Surinam, en Guyana et en Guyane[1],[2],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brangas  getus est présent en Amérique centrale dont Costa Rica et Panama, à Trinité-et-Tobago, au Brésil, au Surinam, en Guyana et en Guyane.
 </t>
         </is>
       </c>
@@ -639,14 +659,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brangas_getus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brangas_getus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Thecla getus (Fabricius, 1787)[4].
-L'espèce a été initialement classée dans le genre Papilio sous le protonyme Papilio getus Fabricius, 1787[4].
-Thecla getus a pour synonymes[4] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Thecla getus (Fabricius, 1787).
+L'espèce a été initialement classée dans le genre Papilio sous le protonyme Papilio getus Fabricius, 1787.
+Thecla getus a pour synonymes :
 Brangas getus (Fabricius, 1787)
 Papilio getus Fabricius, 1787
 Papilio pelops Cramer, 1782</t>
